--- a/generated_docs/WR_89763663_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89763663_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I170"/>
+  <dimension ref="A2:I212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>38481.03</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>49.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>617.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>216.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>365.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>600.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>663.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>665.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>684.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>636.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>652.6799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>291.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>498.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>1581.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>8649.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>49.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>49.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>49.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>57.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1568,32 +1568,32 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>106.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>ANC-DSC-16-96-D1</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1606,41 +1606,41 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>2371.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>238.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>ANC-DSC-16-96-D1</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1670,22 +1670,22 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>POL-40-1</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 1</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1704,32 +1704,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1738,66 +1738,66 @@
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>34.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1806,32 +1806,32 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1844,28 +1844,28 @@
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-1</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 1</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1878,28 +1878,28 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -1908,295 +1908,295 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="15" t="inlineStr">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D54" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E54" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" s="10" t="inlineStr"/>
+      <c r="H54" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B55" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C55" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D55" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E55" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13" t="inlineStr"/>
+      <c r="H55" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D56" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10" t="inlineStr"/>
+      <c r="H56" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B57" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C57" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D57" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E57" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr"/>
+      <c r="H57" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E58" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G58" s="10" t="inlineStr"/>
+      <c r="H58" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C59" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E59" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13" t="inlineStr"/>
+      <c r="H59" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H54" s="16" t="n">
-        <v>6678.969999999999</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="7" t="inlineStr">
+      <c r="H60" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="inlineStr">
         <is>
           <t>Wednesday (08/06/2025)</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C58" s="8" t="inlineStr">
+      <c r="C64" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D58" s="8" t="inlineStr">
+      <c r="D64" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E58" s="8" t="inlineStr">
+      <c r="E64" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F58" s="8" t="inlineStr">
+      <c r="F64" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G58" s="8" t="inlineStr">
+      <c r="G64" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H58" s="8" t="inlineStr">
+      <c r="H64" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C59" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E59" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F59" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="10" t="inlineStr"/>
-      <c r="H59" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B60" s="12" t="inlineStr">
-        <is>
-          <t>PLD-SFL</t>
-        </is>
-      </c>
-      <c r="C60" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D60" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Setting Foam Large</t>
-        </is>
-      </c>
-      <c r="E60" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F60" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="13" t="inlineStr"/>
-      <c r="H60" s="14" t="n">
-        <v>49.64</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C61" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D61" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E61" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F61" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="10" t="inlineStr"/>
-      <c r="H61" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B62" s="12" t="inlineStr">
-        <is>
-          <t>PLD-SFL</t>
-        </is>
-      </c>
-      <c r="C62" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D62" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Setting Foam Large</t>
-        </is>
-      </c>
-      <c r="E62" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F62" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="13" t="inlineStr"/>
-      <c r="H62" s="14" t="n">
-        <v>49.64</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B63" s="9" t="inlineStr">
-        <is>
-          <t>BKT-PI24-F-C</t>
-        </is>
-      </c>
-      <c r="C63" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D63" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E63" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F63" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" s="10" t="inlineStr"/>
-      <c r="H63" s="11" t="n">
-        <v>63.44</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B64" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-1</t>
-        </is>
-      </c>
-      <c r="C64" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D64" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E64" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F64" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="13" t="inlineStr"/>
-      <c r="H64" s="14" t="n">
-        <v>478.55</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI18-F</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 18in,Fbrgls</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2205,32 +2205,32 @@
         </is>
       </c>
       <c r="F65" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>34.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLD-SFL</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLD,Setting Foam Large</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2239,32 +2239,32 @@
         </is>
       </c>
       <c r="F66" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2277,28 +2277,28 @@
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>POL-40-5</t>
+          <t>PLD-SFL</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 5</t>
+          <t>PLD,Setting Foam Large</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2311,28 +2311,28 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2341,17 +2341,17 @@
         </is>
       </c>
       <c r="F69" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
@@ -2379,281 +2379,281 @@
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="15" t="inlineStr">
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B71" s="9" t="inlineStr">
+        <is>
+          <t>BKT-PI18-F</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D71" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 18in,Fbrgls</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" s="10" t="inlineStr"/>
+      <c r="H71" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B72" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C72" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D72" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E72" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" s="13" t="inlineStr"/>
+      <c r="H72" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D73" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="10" t="inlineStr"/>
+      <c r="H73" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C74" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D74" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E74" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="13" t="inlineStr"/>
+      <c r="H74" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="13" t="inlineStr"/>
+      <c r="H76" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H71" s="16" t="n">
-        <v>2792.02</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="7" t="inlineStr">
+      <c r="H77" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="inlineStr">
         <is>
           <t>Thursday (08/07/2025)</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="8" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B75" s="8" t="inlineStr">
+      <c r="B81" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C75" s="8" t="inlineStr">
+      <c r="C81" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D75" s="8" t="inlineStr">
+      <c r="D81" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E75" s="8" t="inlineStr">
+      <c r="E81" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F75" s="8" t="inlineStr">
+      <c r="F81" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G75" s="8" t="inlineStr">
+      <c r="G81" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H75" s="8" t="inlineStr">
+      <c r="H81" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="9" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B76" s="9" t="inlineStr">
-        <is>
-          <t>PLD-SFL</t>
-        </is>
-      </c>
-      <c r="C76" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D76" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Setting Foam Large</t>
-        </is>
-      </c>
-      <c r="E76" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="10" t="inlineStr"/>
-      <c r="H76" s="11" t="n">
-        <v>49.64</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="12" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B77" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C77" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D77" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E77" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F77" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" s="13" t="inlineStr"/>
-      <c r="H77" s="14" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B78" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-42P-EP-C</t>
-        </is>
-      </c>
-      <c r="C78" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D78" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E78" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F78" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G78" s="10" t="inlineStr"/>
-      <c r="H78" s="11" t="n">
-        <v>238.05</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="12" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B79" s="12" t="inlineStr">
-        <is>
-          <t>BKT-PI24-F-C</t>
-        </is>
-      </c>
-      <c r="C79" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D79" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E79" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F79" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G79" s="13" t="inlineStr"/>
-      <c r="H79" s="14" t="n">
-        <v>95.16</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="9" t="inlineStr">
-        <is>
-          <t>Point 30</t>
-        </is>
-      </c>
-      <c r="B80" s="9" t="inlineStr">
-        <is>
-          <t>BKT-PI24-F-C</t>
-        </is>
-      </c>
-      <c r="C80" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D80" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E80" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F80" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G80" s="10" t="inlineStr"/>
-      <c r="H80" s="11" t="n">
-        <v>63.44</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="12" t="inlineStr">
-        <is>
-          <t>Point 30</t>
-        </is>
-      </c>
-      <c r="B81" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C81" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D81" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E81" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F81" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G81" s="13" t="inlineStr"/>
-      <c r="H81" s="14" t="n">
-        <v>282.51</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLD-SFL</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLD,Setting Foam Large</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2676,18 +2676,18 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2706,22 +2706,22 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2774,22 +2774,22 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -2799,31 +2799,31 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F86" s="10" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -2842,22 +2842,22 @@
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC183PH-F-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -2876,22 +2876,22 @@
         </is>
       </c>
       <c r="F88" s="10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>BKT-CMX-50-A</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -2910,22 +2910,22 @@
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>49.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-35-S-X</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -2978,22 +2978,22 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>221.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3012,22 +3012,22 @@
         </is>
       </c>
       <c r="F92" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>376.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3046,22 +3046,22 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3084,28 +3084,28 @@
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>187.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>XFR-50-72-120-2B-S</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,120/240,2BG,SS</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3114,32 +3114,32 @@
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>ARR-10-X</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>ARR,10kV,Transformer</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3152,28 +3152,28 @@
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>85.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC183PH-F-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3186,28 +3186,28 @@
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>BKT-CMX-50-A</t>
+          <t>BKT-AC183PH-F-C</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
+          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3220,28 +3220,28 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>26.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>BKT-IP8-F</t>
+          <t>BKT-CMX-50-A</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>BKT,Insulator Post 8in,Fbrgls</t>
+          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3254,28 +3254,28 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>EQL-3-4-C-35-S-X</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3284,32 +3284,32 @@
         </is>
       </c>
       <c r="F100" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>34.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>CND-SA477</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact 477</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3318,32 +3318,32 @@
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>28.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-40-S-X</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,4/0,CU Str,Xfr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3352,32 +3352,32 @@
         </is>
       </c>
       <c r="F102" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4-FG</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4, FiberGlass</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3390,28 +3390,28 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3420,32 +3420,32 @@
         </is>
       </c>
       <c r="F104" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XFR-50-72-120-2B-S</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XFR,50KVA,7.2/12.4kVY,120/240,2BG,SS</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>ARR-10-X</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>ARR,10kV,Transformer</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3488,11 +3488,11 @@
         </is>
       </c>
       <c r="F106" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>POL-35-6</t>
+          <t>BKT-AC183PH-F-C</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 6</t>
+          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-CMX-50-A</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>BKT-IP8-F</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>BKT,Insulator Post 8in,Fbrgls</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3590,11 +3590,11 @@
         </is>
       </c>
       <c r="F109" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>79.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>XFR-50-72-120-2B</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,120/240,2BG</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
@@ -3624,32 +3624,32 @@
         </is>
       </c>
       <c r="F110" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3658,32 +3658,32 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>CND-SA477</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D112" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>CND,Stirrup,Ampact 477</t>
         </is>
       </c>
       <c r="E112" s="9" t="inlineStr">
@@ -3692,32 +3692,32 @@
         </is>
       </c>
       <c r="F112" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>EQL-3-4-C-40-S-X</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>EQL,3 Ph,#4,CU Sol,4/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
@@ -3726,32 +3726,32 @@
         </is>
       </c>
       <c r="F113" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>GND-CR-4-FG</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>GND,Cu Clad Rod,#4, FiberGlass</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -3764,28 +3764,28 @@
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B115" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C115" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E115" s="12" t="inlineStr">
@@ -3798,13 +3798,13 @@
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="C116" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D116" s="9" t="inlineStr">
@@ -3832,13 +3832,13 @@
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B117" s="12" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C117" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D117" s="12" t="inlineStr">
@@ -3866,28 +3866,28 @@
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>POL-40-1</t>
+          <t>POL-35-6</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 1</t>
+          <t>Pole,35ft,Class 6</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -3900,28 +3900,28 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -3934,28 +3934,28 @@
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>XFR-10-72-240-2B</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D120" s="9" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,240/480,2BG</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E120" s="9" t="inlineStr">
@@ -3964,22 +3964,22 @@
         </is>
       </c>
       <c r="F120" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B121" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>TIE-4-CUH-15</t>
         </is>
       </c>
       <c r="C121" s="12" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="D121" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
         </is>
       </c>
       <c r="E121" s="12" t="inlineStr">
@@ -3998,22 +3998,22 @@
         </is>
       </c>
       <c r="F121" s="13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G121" s="13" t="inlineStr"/>
       <c r="H121" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B122" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C122" s="9" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="D122" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E122" s="9" t="inlineStr">
@@ -4032,22 +4032,22 @@
         </is>
       </c>
       <c r="F122" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G122" s="10" t="inlineStr"/>
       <c r="H122" s="11" t="n">
-        <v>190.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B123" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>XFR-50-72-120-2B</t>
         </is>
       </c>
       <c r="C123" s="12" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="D123" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>XFR,50KVA,7.2/12.4kVY,120/240,2BG</t>
         </is>
       </c>
       <c r="E123" s="12" t="inlineStr">
@@ -4066,32 +4066,32 @@
         </is>
       </c>
       <c r="F123" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G123" s="13" t="inlineStr"/>
       <c r="H123" s="14" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B124" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4-FG</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C124" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D124" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4, FiberGlass</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E124" s="9" t="inlineStr">
@@ -4104,28 +4104,28 @@
       </c>
       <c r="G124" s="10" t="inlineStr"/>
       <c r="H124" s="11" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B125" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C125" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D125" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E125" s="12" t="inlineStr">
@@ -4134,32 +4134,32 @@
         </is>
       </c>
       <c r="F125" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G125" s="13" t="inlineStr"/>
       <c r="H125" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B126" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C126" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D126" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E126" s="9" t="inlineStr">
@@ -4168,32 +4168,32 @@
         </is>
       </c>
       <c r="F126" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126" s="10" t="inlineStr"/>
       <c r="H126" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B127" s="12" t="inlineStr">
         <is>
-          <t>POL-40-3</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C127" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D127" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 3</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E127" s="12" t="inlineStr">
@@ -4206,28 +4206,28 @@
       </c>
       <c r="G127" s="13" t="inlineStr"/>
       <c r="H127" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B128" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C128" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D128" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E128" s="9" t="inlineStr">
@@ -4236,32 +4236,32 @@
         </is>
       </c>
       <c r="F128" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G128" s="10" t="inlineStr"/>
       <c r="H128" s="11" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B129" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C129" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D129" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E129" s="12" t="inlineStr">
@@ -4270,843 +4270,954 @@
         </is>
       </c>
       <c r="F129" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G129" s="13" t="inlineStr"/>
       <c r="H129" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="15" t="inlineStr">
+      <c r="A130" s="9" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B130" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C130" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D130" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="10" t="inlineStr"/>
+      <c r="H130" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="12" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B131" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C131" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D131" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E131" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="13" t="inlineStr"/>
+      <c r="H131" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B132" s="9" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C132" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D132" s="9" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E132" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="10" t="inlineStr"/>
+      <c r="H132" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="12" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B133" s="12" t="inlineStr">
+        <is>
+          <t>XFR-10-72-240-2B</t>
+        </is>
+      </c>
+      <c r="C133" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D133" s="12" t="inlineStr">
+        <is>
+          <t>XFR,10KVA,7.2/12.4kVY,240/480,2BG</t>
+        </is>
+      </c>
+      <c r="E133" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="13" t="inlineStr"/>
+      <c r="H133" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B134" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C134" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D134" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E134" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="10" t="inlineStr"/>
+      <c r="H134" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B135" s="12" t="inlineStr">
+        <is>
+          <t>BKT-PLT18-EHD-A</t>
+        </is>
+      </c>
+      <c r="C135" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D135" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Platform 18ft,EHD,Alum</t>
+        </is>
+      </c>
+      <c r="E135" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G135" s="13" t="inlineStr"/>
+      <c r="H135" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B136" s="9" t="inlineStr">
+        <is>
+          <t>DEG-10-SPA</t>
+        </is>
+      </c>
+      <c r="C136" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D136" s="9" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E136" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G136" s="10" t="inlineStr"/>
+      <c r="H136" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B137" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X-C</t>
+        </is>
+      </c>
+      <c r="C137" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D137" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+        </is>
+      </c>
+      <c r="E137" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="13" t="inlineStr"/>
+      <c r="H137" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B138" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4-FG</t>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D138" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4, FiberGlass</t>
+        </is>
+      </c>
+      <c r="E138" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" s="10" t="inlineStr"/>
+      <c r="H138" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B139" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C139" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D139" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E139" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F139" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G139" s="13" t="inlineStr"/>
+      <c r="H139" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B140" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C140" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D140" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E140" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F140" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" s="10" t="inlineStr"/>
+      <c r="H140" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B141" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-3</t>
+        </is>
+      </c>
+      <c r="C141" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D141" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 3</t>
+        </is>
+      </c>
+      <c r="E141" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F141" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="13" t="inlineStr"/>
+      <c r="H141" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B142" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C142" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D142" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E142" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G142" s="10" t="inlineStr"/>
+      <c r="H142" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B143" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C143" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D143" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E143" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G143" s="13" t="inlineStr"/>
+      <c r="H143" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B144" s="9" t="inlineStr">
+        <is>
+          <t>ARR-10-R</t>
+        </is>
+      </c>
+      <c r="C144" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D144" s="9" t="inlineStr">
+        <is>
+          <t>ARR,10kV,Riser Pole</t>
+        </is>
+      </c>
+      <c r="E144" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="10" t="inlineStr"/>
+      <c r="H144" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B145" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC183PH-F-C</t>
+        </is>
+      </c>
+      <c r="C145" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D145" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E145" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F145" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="13" t="inlineStr"/>
+      <c r="H145" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B146" s="9" t="inlineStr">
+        <is>
+          <t>SWI-25-HGLV-900-H-C</t>
+        </is>
+      </c>
+      <c r="C146" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D146" s="9" t="inlineStr">
+        <is>
+          <t>SWI,35KV,Vert.GOLB Hook,900A,Hook Op,Cor</t>
+        </is>
+      </c>
+      <c r="E146" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" s="10" t="inlineStr"/>
+      <c r="H146" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B147" s="12" t="inlineStr">
+        <is>
+          <t>UCDT-CPL-6-P40-D</t>
+        </is>
+      </c>
+      <c r="C147" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D147" s="12" t="inlineStr">
+        <is>
+          <t>UCDT,Coupling,6in,PVC 40,Distr</t>
+        </is>
+      </c>
+      <c r="E147" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F147" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" s="13" t="inlineStr"/>
+      <c r="H147" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B148" s="9" t="inlineStr">
+        <is>
+          <t>UCDT-VNT-6-AL-D</t>
+        </is>
+      </c>
+      <c r="C148" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D148" s="9" t="inlineStr">
+        <is>
+          <t>UCDT,Vent,6",Alum,Dist</t>
+        </is>
+      </c>
+      <c r="E148" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" s="10" t="inlineStr"/>
+      <c r="H148" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B149" s="12" t="inlineStr">
+        <is>
+          <t>UGND-TAG-C</t>
+        </is>
+      </c>
+      <c r="C149" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D149" s="12" t="inlineStr">
+        <is>
+          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
+        </is>
+      </c>
+      <c r="E149" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" s="13" t="inlineStr"/>
+      <c r="H149" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B150" s="9" t="inlineStr">
+        <is>
+          <t>UPTM-BO-750-15</t>
+        </is>
+      </c>
+      <c r="C150" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D150" s="9" t="inlineStr">
+        <is>
+          <t>UPTM,Bolted Outdoor,750,15kV</t>
+        </is>
+      </c>
+      <c r="E150" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" s="10" t="inlineStr"/>
+      <c r="H150" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B151" s="12" t="inlineStr">
+        <is>
+          <t>URSG-D-500</t>
+        </is>
+      </c>
+      <c r="C151" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D151" s="12" t="inlineStr">
+        <is>
+          <t>URSG,Distr,4.500 in to 4.99in</t>
+        </is>
+      </c>
+      <c r="E151" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" s="13" t="inlineStr"/>
+      <c r="H151" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B152" s="9" t="inlineStr">
+        <is>
+          <t>URSG-D-CP</t>
+        </is>
+      </c>
+      <c r="C152" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D152" s="9" t="inlineStr">
+        <is>
+          <t>URSG,Distr,Cable Postioner</t>
+        </is>
+      </c>
+      <c r="E152" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" s="10" t="inlineStr"/>
+      <c r="H152" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B153" s="12" t="inlineStr">
+        <is>
+          <t>URSR-6-DSO-C</t>
+        </is>
+      </c>
+      <c r="C153" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D153" s="12" t="inlineStr">
+        <is>
+          <t>URSR,6in,Dist.,Stand Off,Corr</t>
+        </is>
+      </c>
+      <c r="E153" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" s="13" t="inlineStr"/>
+      <c r="H153" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B154" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C154" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D154" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E154" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F154" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" s="10" t="inlineStr"/>
+      <c r="H154" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="12" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B155" s="12" t="inlineStr">
+        <is>
+          <t>SWI-25-UHD1-900-H-C</t>
+        </is>
+      </c>
+      <c r="C155" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D155" s="12" t="inlineStr">
+        <is>
+          <t>SWI,25kV,Underhng 1PH,900A,Poly,HK,Corr</t>
+        </is>
+      </c>
+      <c r="E155" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F155" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" s="13" t="inlineStr"/>
+      <c r="H155" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H130" s="16" t="n">
-        <v>9163.24</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="7" t="inlineStr">
+      <c r="H156" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="inlineStr">
         <is>
           <t>Friday (08/08/2025)</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="8" t="inlineStr">
+    <row r="160">
+      <c r="A160" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B134" s="8" t="inlineStr">
+      <c r="B160" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C134" s="8" t="inlineStr">
+      <c r="C160" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D134" s="8" t="inlineStr">
+      <c r="D160" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E134" s="8" t="inlineStr">
+      <c r="E160" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F134" s="8" t="inlineStr">
+      <c r="F160" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G134" s="8" t="inlineStr">
+      <c r="G160" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H134" s="8" t="inlineStr">
+      <c r="H160" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="9" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B135" s="9" t="inlineStr">
-        <is>
-          <t>DEG-556-SPA</t>
-        </is>
-      </c>
-      <c r="C135" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D135" s="9" t="inlineStr">
-        <is>
-          <t>DEG,556,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E135" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F135" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G135" s="10" t="inlineStr"/>
-      <c r="H135" s="11" t="n">
-        <v>858.75</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="12" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B136" s="12" t="inlineStr">
-        <is>
-          <t>DEG-40-SPA</t>
-        </is>
-      </c>
-      <c r="C136" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D136" s="12" t="inlineStr">
-        <is>
-          <t>DEG,4/0,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E136" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" s="13" t="inlineStr"/>
-      <c r="H136" s="14" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B137" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C137" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D137" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E137" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F137" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" s="10" t="inlineStr"/>
-      <c r="H137" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B138" s="12" t="inlineStr">
-        <is>
-          <t>PLD-SFL</t>
-        </is>
-      </c>
-      <c r="C138" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D138" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Setting Foam Large</t>
-        </is>
-      </c>
-      <c r="E138" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F138" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" s="13" t="inlineStr"/>
-      <c r="H138" s="14" t="n">
-        <v>49.64</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="9" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B139" s="9" t="inlineStr">
-        <is>
-          <t>DEC-795AL-C</t>
-        </is>
-      </c>
-      <c r="C139" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D139" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E139" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F139" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G139" s="10" t="inlineStr"/>
-      <c r="H139" s="11" t="n">
-        <v>858.75</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="12" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B140" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C140" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D140" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E140" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F140" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G140" s="13" t="inlineStr"/>
-      <c r="H140" s="14" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="9" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B141" s="9" t="inlineStr">
-        <is>
-          <t>BKT-PI18-F-C</t>
-        </is>
-      </c>
-      <c r="C141" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D141" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Pin insulator 18in,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E141" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F141" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" s="10" t="inlineStr"/>
-      <c r="H141" s="11" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B142" s="12" t="inlineStr">
-        <is>
-          <t>CND-SB556</t>
-        </is>
-      </c>
-      <c r="C142" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D142" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup Bolted 556MCM</t>
-        </is>
-      </c>
-      <c r="E142" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F142" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" s="13" t="inlineStr"/>
-      <c r="H142" s="14" t="n">
-        <v>9.34</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B143" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DSC-16-96-D1</t>
-        </is>
-      </c>
-      <c r="C143" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D143" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E143" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F143" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G143" s="10" t="inlineStr"/>
-      <c r="H143" s="11" t="n">
-        <v>2371.68</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B144" s="12" t="inlineStr">
-        <is>
-          <t>ARM-3SF-GN-C</t>
-        </is>
-      </c>
-      <c r="C144" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D144" s="12" t="inlineStr">
-        <is>
-          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
-        </is>
-      </c>
-      <c r="E144" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F144" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" s="13" t="inlineStr"/>
-      <c r="H144" s="14" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B145" s="9" t="inlineStr">
-        <is>
-          <t>DEC-795AL-C</t>
-        </is>
-      </c>
-      <c r="C145" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D145" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E145" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F145" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G145" s="10" t="inlineStr"/>
-      <c r="H145" s="11" t="n">
-        <v>858.75</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B146" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C146" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D146" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E146" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F146" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" s="13" t="inlineStr"/>
-      <c r="H146" s="14" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B147" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-42P-EP-C</t>
-        </is>
-      </c>
-      <c r="C147" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D147" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E147" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F147" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G147" s="10" t="inlineStr"/>
-      <c r="H147" s="11" t="n">
-        <v>238.05</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B148" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C148" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D148" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E148" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F148" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G148" s="13" t="inlineStr"/>
-      <c r="H148" s="14" t="n">
-        <v>470.85</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B149" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C149" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D149" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E149" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F149" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G149" s="10" t="inlineStr"/>
-      <c r="H149" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B150" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C150" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D150" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E150" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G150" s="13" t="inlineStr"/>
-      <c r="H150" s="14" t="n">
-        <v>376.68</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B151" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-1</t>
-        </is>
-      </c>
-      <c r="C151" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D151" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E151" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" s="10" t="inlineStr"/>
-      <c r="H151" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="12" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B152" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-D1</t>
-        </is>
-      </c>
-      <c r="C152" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D152" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E152" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F152" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G152" s="13" t="inlineStr"/>
-      <c r="H152" s="14" t="n">
-        <v>85.8</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="9" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B153" s="9" t="inlineStr">
-        <is>
-          <t>ARM-3SF-GN-C</t>
-        </is>
-      </c>
-      <c r="C153" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D153" s="9" t="inlineStr">
-        <is>
-          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
-        </is>
-      </c>
-      <c r="E153" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F153" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G153" s="10" t="inlineStr"/>
-      <c r="H153" s="11" t="n">
-        <v>61.83</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H154" s="16" t="n">
-        <v>8508.769999999999</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="7" t="inlineStr">
-        <is>
-          <t>Saturday (08/09/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B158" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C158" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D158" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E158" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F158" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G158" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H158" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B159" s="9" t="inlineStr">
-        <is>
-          <t>DEC-795AL-C</t>
-        </is>
-      </c>
-      <c r="C159" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D159" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E159" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F159" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G159" s="10" t="inlineStr"/>
-      <c r="H159" s="11" t="n">
-        <v>1717.5</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B160" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C160" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D160" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E160" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F160" s="13" t="n">
-        <v>39</v>
-      </c>
-      <c r="G160" s="13" t="inlineStr"/>
-      <c r="H160" s="14" t="n">
-        <v>36.27</v>
       </c>
     </row>
     <row r="161">
@@ -5117,17 +5228,17 @@
       </c>
       <c r="B161" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>DEG-556-SPA</t>
         </is>
       </c>
       <c r="C161" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D161" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>DEG,556,Slack Span Alum</t>
         </is>
       </c>
       <c r="E161" s="9" t="inlineStr">
@@ -5140,198 +5251,198 @@
       </c>
       <c r="G161" s="10" t="inlineStr"/>
       <c r="H161" s="11" t="n">
-        <v>85.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B162" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B</t>
+          <t>DEG-40-SPA</t>
         </is>
       </c>
       <c r="C162" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D162" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+          <t>DEG,4/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E162" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F162" s="13" t="n">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="G162" s="13" t="inlineStr"/>
       <c r="H162" s="14" t="n">
-        <v>197.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B163" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C163" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D163" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E163" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F163" s="10" t="n">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="G163" s="10" t="inlineStr"/>
       <c r="H163" s="11" t="n">
-        <v>259.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="12" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B164" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B</t>
+          <t>PLD-SFL</t>
         </is>
       </c>
       <c r="C164" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D164" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+          <t>PLD,Setting Foam Large</t>
         </is>
       </c>
       <c r="E164" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F164" s="13" t="n">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="G164" s="13" t="inlineStr"/>
       <c r="H164" s="14" t="n">
-        <v>172.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B165" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B</t>
+          <t>DEC-795AL-C</t>
         </is>
       </c>
       <c r="C165" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D165" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E165" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F165" s="10" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G165" s="10" t="inlineStr"/>
       <c r="H165" s="11" t="n">
-        <v>24.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B166" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C166" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E166" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F166" s="13" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G166" s="13" t="inlineStr"/>
       <c r="H166" s="14" t="n">
-        <v>28.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B167" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C167" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D167" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E167" s="9" t="inlineStr">
@@ -5340,22 +5451,22 @@
         </is>
       </c>
       <c r="F167" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G167" s="10" t="inlineStr"/>
       <c r="H167" s="11" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B168" s="12" t="inlineStr">
         <is>
-          <t>GYF-12-D-78P-EP</t>
+          <t>BKT-PI18-F-C</t>
         </is>
       </c>
       <c r="C168" s="12" t="inlineStr">
@@ -5365,7 +5476,7 @@
       </c>
       <c r="D168" s="12" t="inlineStr">
         <is>
-          <t>GYF,1/2,Down,78in Pole mt,EyePlate</t>
+          <t>BKT,Pin insulator 18in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E168" s="12" t="inlineStr">
@@ -5374,22 +5485,22 @@
         </is>
       </c>
       <c r="F168" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G168" s="13" t="inlineStr"/>
       <c r="H168" s="14" t="n">
-        <v>71.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B169" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C169" s="9" t="inlineStr">
@@ -5399,7 +5510,7 @@
       </c>
       <c r="D169" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E169" s="9" t="inlineStr">
@@ -5412,17 +5523,1334 @@
       </c>
       <c r="G169" s="10" t="inlineStr"/>
       <c r="H169" s="11" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="15" t="inlineStr">
+      <c r="A170" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B170" s="12" t="inlineStr">
+        <is>
+          <t>CND-SB556</t>
+        </is>
+      </c>
+      <c r="C170" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D170" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup Bolted 556MCM</t>
+        </is>
+      </c>
+      <c r="E170" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F170" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" s="13" t="inlineStr"/>
+      <c r="H170" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B171" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DSC-16-96-D1</t>
+        </is>
+      </c>
+      <c r="C171" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D171" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E171" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F171" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G171" s="10" t="inlineStr"/>
+      <c r="H171" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B172" s="12" t="inlineStr">
+        <is>
+          <t>ARM-3SF-GN-C</t>
+        </is>
+      </c>
+      <c r="C172" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D172" s="12" t="inlineStr">
+        <is>
+          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
+        </is>
+      </c>
+      <c r="E172" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F172" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" s="13" t="inlineStr"/>
+      <c r="H172" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B173" s="9" t="inlineStr">
+        <is>
+          <t>DEC-795AL-C</t>
+        </is>
+      </c>
+      <c r="C173" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D173" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E173" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F173" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G173" s="10" t="inlineStr"/>
+      <c r="H173" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B174" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C174" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D174" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E174" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F174" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" s="13" t="inlineStr"/>
+      <c r="H174" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B175" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C175" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D175" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E175" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F175" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G175" s="10" t="inlineStr"/>
+      <c r="H175" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B176" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP-C</t>
+        </is>
+      </c>
+      <c r="C176" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D176" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E176" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F176" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G176" s="13" t="inlineStr"/>
+      <c r="H176" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B177" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C177" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D177" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E177" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F177" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="G177" s="10" t="inlineStr"/>
+      <c r="H177" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B178" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C178" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D178" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E178" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F178" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G178" s="13" t="inlineStr"/>
+      <c r="H178" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B179" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C179" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D179" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E179" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F179" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G179" s="10" t="inlineStr"/>
+      <c r="H179" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B180" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C180" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D180" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E180" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F180" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" s="13" t="inlineStr"/>
+      <c r="H180" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B181" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C181" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D181" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E181" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F181" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G181" s="10" t="inlineStr"/>
+      <c r="H181" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B182" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM-C</t>
+        </is>
+      </c>
+      <c r="C182" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D182" s="12" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+        </is>
+      </c>
+      <c r="E182" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F182" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G182" s="13" t="inlineStr"/>
+      <c r="H182" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B183" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C183" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D183" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E183" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F183" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G183" s="10" t="inlineStr"/>
+      <c r="H183" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B184" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C184" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D184" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E184" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F184" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="13" t="inlineStr"/>
+      <c r="H184" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="9" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B185" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-D1</t>
+        </is>
+      </c>
+      <c r="C185" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D185" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E185" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F185" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G185" s="10" t="inlineStr"/>
+      <c r="H185" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="12" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B186" s="12" t="inlineStr">
+        <is>
+          <t>ARM-3SF-GN-C</t>
+        </is>
+      </c>
+      <c r="C186" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D186" s="12" t="inlineStr">
+        <is>
+          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
+        </is>
+      </c>
+      <c r="E186" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F186" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" s="13" t="inlineStr"/>
+      <c r="H186" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="9" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B187" s="9" t="inlineStr">
+        <is>
+          <t>ARR-10-R</t>
+        </is>
+      </c>
+      <c r="C187" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D187" s="9" t="inlineStr">
+        <is>
+          <t>ARR,10kV,Riser Pole</t>
+        </is>
+      </c>
+      <c r="E187" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F187" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" s="10" t="inlineStr"/>
+      <c r="H187" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="12" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B188" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC183PH-F</t>
+        </is>
+      </c>
+      <c r="C188" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D188" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Riser Arrestor/Term 18in 3Ph,Fbrgls</t>
+        </is>
+      </c>
+      <c r="E188" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F188" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" s="13" t="inlineStr"/>
+      <c r="H188" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H170" s="16" t="n">
-        <v>2688.429999999999</v>
+      <c r="H189" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="7" t="inlineStr">
+        <is>
+          <t>Saturday (08/09/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B193" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C193" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D193" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E193" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F193" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G193" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H193" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B194" s="9" t="inlineStr">
+        <is>
+          <t>DEC-795AL-C</t>
+        </is>
+      </c>
+      <c r="C194" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D194" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E194" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F194" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G194" s="10" t="inlineStr"/>
+      <c r="H194" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B195" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C195" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D195" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E195" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F195" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="G195" s="13" t="inlineStr"/>
+      <c r="H195" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B196" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-8-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C196" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D196" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E196" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F196" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G196" s="10" t="inlineStr"/>
+      <c r="H196" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B197" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C197" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D197" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E197" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F197" s="13" t="n">
+        <v>212</v>
+      </c>
+      <c r="G197" s="13" t="inlineStr"/>
+      <c r="H197" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B198" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C198" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D198" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E198" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F198" s="10" t="n">
+        <v>279</v>
+      </c>
+      <c r="G198" s="10" t="inlineStr"/>
+      <c r="H198" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B199" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C199" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D199" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E199" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F199" s="13" t="n">
+        <v>185</v>
+      </c>
+      <c r="G199" s="13" t="inlineStr"/>
+      <c r="H199" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="9" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B200" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C200" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D200" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E200" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F200" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G200" s="10" t="inlineStr"/>
+      <c r="H200" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B201" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C201" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D201" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E201" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F201" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="G201" s="13" t="inlineStr"/>
+      <c r="H201" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="9" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B202" s="9" t="inlineStr">
+        <is>
+          <t>EQL-3-50-S-50-S-SWT</t>
+        </is>
+      </c>
+      <c r="C202" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D202" s="9" t="inlineStr">
+        <is>
+          <t>EQL,3 Ph,500,Str,500,Str,600a Swt</t>
+        </is>
+      </c>
+      <c r="E202" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F202" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" s="10" t="inlineStr"/>
+      <c r="H202" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="12" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B203" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C203" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D203" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E203" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F203" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" s="13" t="inlineStr"/>
+      <c r="H203" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="9" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B204" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C204" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D204" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E204" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F204" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G204" s="10" t="inlineStr"/>
+      <c r="H204" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="12" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B205" s="12" t="inlineStr">
+        <is>
+          <t>GYF-12-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C205" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D205" s="12" t="inlineStr">
+        <is>
+          <t>GYF,1/2,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E205" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F205" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G205" s="13" t="inlineStr"/>
+      <c r="H205" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="9" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B206" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C206" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D206" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E206" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F206" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" s="10" t="inlineStr"/>
+      <c r="H206" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="12" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B207" s="12" t="inlineStr">
+        <is>
+          <t>GYW-12</t>
+        </is>
+      </c>
+      <c r="C207" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D207" s="12" t="inlineStr">
+        <is>
+          <t>GYW,1/2 in. EHS (26,900 lbs)</t>
+        </is>
+      </c>
+      <c r="E207" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F207" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G207" s="13" t="inlineStr"/>
+      <c r="H207" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="9" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B208" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C208" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D208" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E208" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F208" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G208" s="10" t="inlineStr"/>
+      <c r="H208" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="12" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B209" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C209" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D209" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E209" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F209" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G209" s="13" t="inlineStr"/>
+      <c r="H209" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="9" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B210" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM-C</t>
+        </is>
+      </c>
+      <c r="C210" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D210" s="9" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+        </is>
+      </c>
+      <c r="E210" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F210" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G210" s="10" t="inlineStr"/>
+      <c r="H210" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="12" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B211" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C211" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D211" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E211" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F211" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G211" s="13" t="inlineStr"/>
+      <c r="H211" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H212" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5430,24 +6858,24 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="D2:I4"/>
-    <mergeCell ref="A157:H157"/>
-    <mergeCell ref="A170:G170"/>
+    <mergeCell ref="A156:G156"/>
     <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A130:G130"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A192:H192"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A57:H57"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A54:G54"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A212:G212"/>
+    <mergeCell ref="A159:H159"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A154:G154"/>
+    <mergeCell ref="A189:G189"/>
+    <mergeCell ref="A63:H63"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A71:G71"/>
     <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89763663_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89763663_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I212"/>
+  <dimension ref="A2:I170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>38481.03</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P35</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>49.64</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>617.4</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>216.58</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>365.54</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>600.74</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>663.46</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>665.42</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>684.04</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>636.02</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>652.6799999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>291.06</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>498.82</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>1581.12</v>
       </c>
     </row>
     <row r="30">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="31">
@@ -1251,7 +1247,7 @@
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>0</v>
+        <v>8649.6</v>
       </c>
     </row>
     <row r="34">
@@ -1334,7 +1330,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="37">
@@ -1368,7 +1364,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>49.64</v>
       </c>
     </row>
     <row r="38">
@@ -1402,7 +1398,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="39">
@@ -1436,7 +1432,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>49.64</v>
       </c>
     </row>
     <row r="40">
@@ -1470,7 +1466,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="41">
@@ -1504,7 +1500,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>49.64</v>
       </c>
     </row>
     <row r="42">
@@ -1538,7 +1534,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="43">
@@ -1549,7 +1545,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1559,7 +1555,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1568,32 +1564,32 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>106.74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>ANC-DSC-16-96-D1</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1606,41 +1602,41 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>2371.68</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>GYW-38</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>238.05</v>
       </c>
     </row>
     <row r="46">
@@ -1651,7 +1647,7 @@
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>ANC-DSC-16-96-D1</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1661,7 +1657,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1670,22 +1666,22 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>POL-40-1</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1695,7 +1691,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>Pole,40ft,Class 1</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1704,32 +1700,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1738,66 +1734,66 @@
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1806,32 +1802,32 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1844,28 +1840,28 @@
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>POL-40-1</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 1</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1878,28 +1874,28 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -1908,295 +1904,295 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C54" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D54" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E54" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F54" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" s="10" t="inlineStr"/>
-      <c r="H54" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B55" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C55" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D55" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E55" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F55" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="13" t="inlineStr"/>
-      <c r="H55" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C56" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D56" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E56" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F56" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="10" t="inlineStr"/>
-      <c r="H56" s="11" t="n">
-        <v>0</v>
+      <c r="A54" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H54" s="16" t="n">
+        <v>6678.969999999999</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B57" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C57" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D57" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E57" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F57" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="13" t="inlineStr"/>
-      <c r="H57" s="14" t="n">
-        <v>0</v>
+      <c r="A57" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (08/06/2025)</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C58" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D58" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E58" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F58" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G58" s="10" t="inlineStr"/>
-      <c r="H58" s="11" t="n">
-        <v>0</v>
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D58" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F58" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="12" t="inlineStr">
-        <is>
-          <t>Point 32</t>
-        </is>
-      </c>
-      <c r="B59" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C59" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E59" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F59" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="13" t="inlineStr"/>
-      <c r="H59" s="14" t="n">
-        <v>0</v>
+      <c r="A59" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C59" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E59" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10" t="inlineStr"/>
+      <c r="H59" s="11" t="n">
+        <v>648.53</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H60" s="16" t="n">
-        <v>0</v>
+      <c r="A60" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B60" s="12" t="inlineStr">
+        <is>
+          <t>PLD-SFL</t>
+        </is>
+      </c>
+      <c r="C60" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Setting Foam Large</t>
+        </is>
+      </c>
+      <c r="E60" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="13" t="inlineStr"/>
+      <c r="H60" s="14" t="n">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E61" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="10" t="inlineStr"/>
+      <c r="H61" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B62" s="12" t="inlineStr">
+        <is>
+          <t>PLD-SFL</t>
+        </is>
+      </c>
+      <c r="C62" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D62" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Setting Foam Large</t>
+        </is>
+      </c>
+      <c r="E62" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="13" t="inlineStr"/>
+      <c r="H62" s="14" t="n">
+        <v>49.64</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (08/06/2025)</t>
-        </is>
+      <c r="A63" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F-C</t>
+        </is>
+      </c>
+      <c r="C63" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E63" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="10" t="inlineStr"/>
+      <c r="H63" s="11" t="n">
+        <v>63.44</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B64" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C64" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D64" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E64" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F64" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G64" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H64" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A64" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B64" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C64" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D64" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E64" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="13" t="inlineStr"/>
+      <c r="H64" s="14" t="n">
+        <v>478.55</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>BKT-PI18-F</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>BKT,Pin insulator 18in,Fbrgls</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2205,32 +2201,32 @@
         </is>
       </c>
       <c r="F65" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>0</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>PLD-SFL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>PLD,Setting Foam Large</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2239,32 +2235,32 @@
         </is>
       </c>
       <c r="F66" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2277,28 +2273,28 @@
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>PLD-SFL</t>
+          <t>POL-40-5</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>PLD,Setting Foam Large</t>
+          <t>Pole,40ft,Class 5</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2311,28 +2307,28 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2341,17 +2337,17 @@
         </is>
       </c>
       <c r="F69" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
@@ -2379,281 +2375,281 @@
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B71" s="9" t="inlineStr">
-        <is>
-          <t>BKT-PI18-F</t>
-        </is>
-      </c>
-      <c r="C71" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D71" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Pin insulator 18in,Fbrgls</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F71" s="10" t="n">
+      <c r="A71" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H71" s="16" t="n">
+        <v>2792.02</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (08/07/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C75" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D75" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E75" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G75" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H75" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>PLD-SFL</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Setting Foam Large</t>
+        </is>
+      </c>
+      <c r="E76" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="10" t="inlineStr"/>
+      <c r="H76" s="11" t="n">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="12" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C77" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D77" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E77" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="13" t="inlineStr"/>
+      <c r="H77" s="14" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP-C</t>
+        </is>
+      </c>
+      <c r="C78" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D78" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E78" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" s="10" t="inlineStr"/>
+      <c r="H78" s="11" t="n">
+        <v>238.05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="12" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B79" s="12" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F-C</t>
+        </is>
+      </c>
+      <c r="C79" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D79" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E79" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" s="13" t="inlineStr"/>
+      <c r="H79" s="14" t="n">
+        <v>95.16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F-C</t>
+        </is>
+      </c>
+      <c r="C80" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D80" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E80" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G71" s="10" t="inlineStr"/>
-      <c r="H71" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="12" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B72" s="12" t="inlineStr">
+      <c r="G80" s="10" t="inlineStr"/>
+      <c r="H80" s="11" t="n">
+        <v>63.44</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B81" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C72" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D72" s="12" t="inlineStr">
+      <c r="C81" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D81" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E72" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F72" s="13" t="n">
+      <c r="E81" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G72" s="13" t="inlineStr"/>
-      <c r="H72" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B73" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C73" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D73" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F73" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="10" t="inlineStr"/>
-      <c r="H73" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="12" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B74" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-5</t>
-        </is>
-      </c>
-      <c r="C74" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D74" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 5</t>
-        </is>
-      </c>
-      <c r="E74" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F74" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="13" t="inlineStr"/>
-      <c r="H74" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B75" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C75" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D75" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E75" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="10" t="inlineStr"/>
-      <c r="H75" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B76" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-1</t>
-        </is>
-      </c>
-      <c r="C76" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D76" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E76" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="13" t="inlineStr"/>
-      <c r="H76" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H77" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (08/07/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B81" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C81" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D81" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E81" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F81" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G81" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H81" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="G81" s="13" t="inlineStr"/>
+      <c r="H81" s="14" t="n">
+        <v>282.51</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>PLD-SFL</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2663,7 +2659,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>PLD,Setting Foam Large</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2676,18 +2672,18 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2697,7 +2693,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2706,22 +2702,22 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -2731,7 +2727,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -2740,22 +2736,22 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -2765,7 +2761,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2774,22 +2770,22 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -2799,31 +2795,31 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F86" s="10" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -2833,7 +2829,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -2842,22 +2838,22 @@
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>BKT-AC183PH-F-C</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -2867,7 +2863,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -2876,22 +2872,22 @@
         </is>
       </c>
       <c r="F88" s="10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>BKT-CMX-50-A</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -2901,7 +2897,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -2910,22 +2906,22 @@
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>0</v>
+        <v>49.01</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>EQL-3-4-C-35-S-X</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -2935,7 +2931,7 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -2944,22 +2940,22 @@
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>0</v>
+        <v>670</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -2969,7 +2965,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -2978,22 +2974,22 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>0</v>
+        <v>221.48</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -3003,7 +2999,7 @@
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3012,22 +3008,22 @@
         </is>
       </c>
       <c r="F92" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>0</v>
+        <v>376.68</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3037,7 +3033,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3046,22 +3042,22 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3071,7 +3067,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3084,28 +3080,28 @@
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>0</v>
+        <v>187.26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>XFR-50-72-120-2B-S</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>XFR,50KVA,7.2/12.4kVY,120/240,2BG,SS</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3114,32 +3110,32 @@
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>0</v>
+        <v>609</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARR-10-X</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARR,10kV,Transformer</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3152,28 +3148,28 @@
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>0</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>BKT-AC183PH-F-C</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3186,28 +3182,28 @@
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC183PH-F-C</t>
+          <t>BKT-CMX-50-A</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
+          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3220,28 +3216,28 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>0</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>BKT-CMX-50-A</t>
+          <t>BKT-IP8-F</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
+          <t>BKT,Insulator Post 8in,Fbrgls</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3254,28 +3250,28 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-35-S-X</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3284,32 +3280,32 @@
         </is>
       </c>
       <c r="F100" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>0</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CND-SA477</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CND,Stirrup,Ampact 477</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3318,32 +3314,32 @@
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>0</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>EQL-3-4-C-40-S-X</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>EQL,3 Ph,#4,CU Sol,4/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3352,32 +3348,32 @@
         </is>
       </c>
       <c r="F102" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-CR-4-FG</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4, FiberGlass</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3390,28 +3386,28 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3420,32 +3416,32 @@
         </is>
       </c>
       <c r="F104" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>XFR-50-72-120-2B-S</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,120/240,2BG,SS</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3458,7 +3454,7 @@
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -3469,7 +3465,7 @@
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>ARR-10-X</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3479,7 +3475,7 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>ARR,10kV,Transformer</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3488,11 +3484,11 @@
         </is>
       </c>
       <c r="F106" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="107">
@@ -3503,7 +3499,7 @@
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC183PH-F-C</t>
+          <t>POL-35-6</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
@@ -3513,7 +3509,7 @@
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
+          <t>Pole,35ft,Class 6</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3526,7 +3522,7 @@
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="108">
@@ -3537,7 +3533,7 @@
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>BKT-CMX-50-A</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
@@ -3547,7 +3543,7 @@
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3560,7 +3556,7 @@
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="109">
@@ -3571,7 +3567,7 @@
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>BKT-IP8-F</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
@@ -3581,7 +3577,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>BKT,Insulator Post 8in,Fbrgls</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3590,11 +3586,11 @@
         </is>
       </c>
       <c r="F109" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>0</v>
+        <v>79.56</v>
       </c>
     </row>
     <row r="110">
@@ -3605,7 +3601,7 @@
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>XFR-50-72-120-2B</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
@@ -3615,7 +3611,7 @@
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>XFR,50KVA,7.2/12.4kVY,120/240,2BG</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
@@ -3624,32 +3620,32 @@
         </is>
       </c>
       <c r="F110" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3658,32 +3654,32 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>CND-SA477</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D112" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact 477</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E112" s="9" t="inlineStr">
@@ -3692,32 +3688,32 @@
         </is>
       </c>
       <c r="F112" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-40-S-X</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,4/0,CU Str,Xfr</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
@@ -3726,32 +3722,32 @@
         </is>
       </c>
       <c r="F113" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4-FG</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4, FiberGlass</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -3764,28 +3760,28 @@
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B115" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C115" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E115" s="12" t="inlineStr">
@@ -3798,13 +3794,13 @@
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="C116" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D116" s="9" t="inlineStr">
@@ -3832,13 +3828,13 @@
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B117" s="12" t="inlineStr">
@@ -3848,7 +3844,7 @@
       </c>
       <c r="C117" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D117" s="12" t="inlineStr">
@@ -3866,28 +3862,28 @@
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>POL-35-6</t>
+          <t>POL-40-1</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 6</t>
+          <t>Pole,40ft,Class 1</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -3900,28 +3896,28 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -3934,28 +3930,28 @@
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>XFR-10-72-240-2B</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D120" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>XFR,10KVA,7.2/12.4kVY,240/480,2BG</t>
         </is>
       </c>
       <c r="E120" s="9" t="inlineStr">
@@ -3964,22 +3960,22 @@
         </is>
       </c>
       <c r="F120" s="10" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B121" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-CUH-15</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C121" s="12" t="inlineStr">
@@ -3989,7 +3985,7 @@
       </c>
       <c r="D121" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E121" s="12" t="inlineStr">
@@ -3998,22 +3994,22 @@
         </is>
       </c>
       <c r="F121" s="13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G121" s="13" t="inlineStr"/>
       <c r="H121" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B122" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C122" s="9" t="inlineStr">
@@ -4023,7 +4019,7 @@
       </c>
       <c r="D122" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E122" s="9" t="inlineStr">
@@ -4032,22 +4028,22 @@
         </is>
       </c>
       <c r="F122" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G122" s="10" t="inlineStr"/>
       <c r="H122" s="11" t="n">
-        <v>0</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B123" s="12" t="inlineStr">
         <is>
-          <t>XFR-50-72-120-2B</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C123" s="12" t="inlineStr">
@@ -4057,7 +4053,7 @@
       </c>
       <c r="D123" s="12" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,120/240,2BG</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E123" s="12" t="inlineStr">
@@ -4066,32 +4062,32 @@
         </is>
       </c>
       <c r="F123" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G123" s="13" t="inlineStr"/>
       <c r="H123" s="14" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B124" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>GND-CR-4-FG</t>
         </is>
       </c>
       <c r="C124" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D124" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>GND,Cu Clad Rod,#4, FiberGlass</t>
         </is>
       </c>
       <c r="E124" s="9" t="inlineStr">
@@ -4104,28 +4100,28 @@
       </c>
       <c r="G124" s="10" t="inlineStr"/>
       <c r="H124" s="11" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B125" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C125" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D125" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E125" s="12" t="inlineStr">
@@ -4134,32 +4130,32 @@
         </is>
       </c>
       <c r="F125" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G125" s="13" t="inlineStr"/>
       <c r="H125" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B126" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C126" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D126" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E126" s="9" t="inlineStr">
@@ -4168,32 +4164,32 @@
         </is>
       </c>
       <c r="F126" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" s="10" t="inlineStr"/>
       <c r="H126" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B127" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>POL-40-3</t>
         </is>
       </c>
       <c r="C127" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D127" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>Pole,40ft,Class 3</t>
         </is>
       </c>
       <c r="E127" s="12" t="inlineStr">
@@ -4206,28 +4202,28 @@
       </c>
       <c r="G127" s="13" t="inlineStr"/>
       <c r="H127" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B128" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C128" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D128" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E128" s="9" t="inlineStr">
@@ -4236,32 +4232,32 @@
         </is>
       </c>
       <c r="F128" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G128" s="10" t="inlineStr"/>
       <c r="H128" s="11" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B129" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C129" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D129" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E129" s="12" t="inlineStr">
@@ -4270,954 +4266,843 @@
         </is>
       </c>
       <c r="F129" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G129" s="13" t="inlineStr"/>
       <c r="H129" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="9" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B130" s="9" t="inlineStr">
+      <c r="A130" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H130" s="16" t="n">
+        <v>9163.24</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="inlineStr">
+        <is>
+          <t>Friday (08/08/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B134" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C134" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D134" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E134" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F134" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G134" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H134" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B135" s="9" t="inlineStr">
+        <is>
+          <t>DEG-556-SPA</t>
+        </is>
+      </c>
+      <c r="C135" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D135" s="9" t="inlineStr">
+        <is>
+          <t>DEG,556,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E135" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G135" s="10" t="inlineStr"/>
+      <c r="H135" s="11" t="n">
+        <v>858.75</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="12" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B136" s="12" t="inlineStr">
+        <is>
+          <t>DEG-40-SPA</t>
+        </is>
+      </c>
+      <c r="C136" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D136" s="12" t="inlineStr">
+        <is>
+          <t>DEG,4/0,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E136" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="13" t="inlineStr"/>
+      <c r="H136" s="14" t="n">
+        <v>286.25</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B137" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C137" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D137" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E137" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="10" t="inlineStr"/>
+      <c r="H137" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B138" s="12" t="inlineStr">
+        <is>
+          <t>PLD-SFL</t>
+        </is>
+      </c>
+      <c r="C138" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D138" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Setting Foam Large</t>
+        </is>
+      </c>
+      <c r="E138" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" s="13" t="inlineStr"/>
+      <c r="H138" s="14" t="n">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B139" s="9" t="inlineStr">
+        <is>
+          <t>DEC-795AL-C</t>
+        </is>
+      </c>
+      <c r="C139" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D139" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E139" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F139" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G139" s="10" t="inlineStr"/>
+      <c r="H139" s="11" t="n">
+        <v>858.75</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="12" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B140" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C140" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D140" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E140" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F140" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G140" s="13" t="inlineStr"/>
+      <c r="H140" s="14" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B141" s="9" t="inlineStr">
+        <is>
+          <t>BKT-PI18-F-C</t>
+        </is>
+      </c>
+      <c r="C141" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D141" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 18in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E141" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F141" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="10" t="inlineStr"/>
+      <c r="H141" s="11" t="n">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B142" s="12" t="inlineStr">
+        <is>
+          <t>CND-SB556</t>
+        </is>
+      </c>
+      <c r="C142" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D142" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup Bolted 556MCM</t>
+        </is>
+      </c>
+      <c r="E142" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="13" t="inlineStr"/>
+      <c r="H142" s="14" t="n">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B143" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DSC-16-96-D1</t>
+        </is>
+      </c>
+      <c r="C143" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D143" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E143" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G143" s="10" t="inlineStr"/>
+      <c r="H143" s="11" t="n">
+        <v>2371.68</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B144" s="12" t="inlineStr">
+        <is>
+          <t>ARM-3SF-GN-C</t>
+        </is>
+      </c>
+      <c r="C144" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D144" s="12" t="inlineStr">
+        <is>
+          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
+        </is>
+      </c>
+      <c r="E144" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="13" t="inlineStr"/>
+      <c r="H144" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B145" s="9" t="inlineStr">
+        <is>
+          <t>DEC-795AL-C</t>
+        </is>
+      </c>
+      <c r="C145" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D145" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E145" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F145" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" s="10" t="inlineStr"/>
+      <c r="H145" s="11" t="n">
+        <v>858.75</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B146" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C146" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D146" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E146" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" s="13" t="inlineStr"/>
+      <c r="H146" s="14" t="n">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B147" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP-C</t>
+        </is>
+      </c>
+      <c r="C147" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D147" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E147" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F147" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" s="10" t="inlineStr"/>
+      <c r="H147" s="11" t="n">
+        <v>238.05</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B148" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C148" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D148" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E148" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" s="13" t="inlineStr"/>
+      <c r="H148" s="14" t="n">
+        <v>470.85</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B149" s="9" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C130" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D130" s="9" t="inlineStr">
+      <c r="C149" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D149" s="9" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E130" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F130" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" s="10" t="inlineStr"/>
-      <c r="H130" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="12" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B131" s="12" t="inlineStr">
+      <c r="E149" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="10" t="inlineStr"/>
+      <c r="H149" s="11" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B150" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C150" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D150" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E150" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G150" s="13" t="inlineStr"/>
+      <c r="H150" s="14" t="n">
+        <v>376.68</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B151" s="9" t="inlineStr">
         <is>
           <t>POL-40-1</t>
         </is>
       </c>
-      <c r="C131" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D131" s="12" t="inlineStr">
+      <c r="C151" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D151" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 1</t>
         </is>
       </c>
-      <c r="E131" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F131" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" s="13" t="inlineStr"/>
-      <c r="H131" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="9" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B132" s="9" t="inlineStr">
-        <is>
-          <t>XCO-27-100-8-C</t>
-        </is>
-      </c>
-      <c r="C132" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D132" s="9" t="inlineStr">
-        <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
-        </is>
-      </c>
-      <c r="E132" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F132" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" s="10" t="inlineStr"/>
-      <c r="H132" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="12" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B133" s="12" t="inlineStr">
-        <is>
-          <t>XFR-10-72-240-2B</t>
-        </is>
-      </c>
-      <c r="C133" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D133" s="12" t="inlineStr">
-        <is>
-          <t>XFR,10KVA,7.2/12.4kVY,240/480,2BG</t>
-        </is>
-      </c>
-      <c r="E133" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" s="13" t="inlineStr"/>
-      <c r="H133" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B134" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F</t>
-        </is>
-      </c>
-      <c r="C134" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D134" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
-        </is>
-      </c>
-      <c r="E134" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F134" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G134" s="10" t="inlineStr"/>
-      <c r="H134" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B135" s="12" t="inlineStr">
-        <is>
-          <t>BKT-PLT18-EHD-A</t>
-        </is>
-      </c>
-      <c r="C135" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D135" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Platform 18ft,EHD,Alum</t>
-        </is>
-      </c>
-      <c r="E135" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F135" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G135" s="13" t="inlineStr"/>
-      <c r="H135" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B136" s="9" t="inlineStr">
-        <is>
-          <t>DEG-10-SPA</t>
-        </is>
-      </c>
-      <c r="C136" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D136" s="9" t="inlineStr">
-        <is>
-          <t>DEG,1/0,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E136" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G136" s="10" t="inlineStr"/>
-      <c r="H136" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B137" s="12" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
-        </is>
-      </c>
-      <c r="C137" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D137" s="12" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
-        </is>
-      </c>
-      <c r="E137" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F137" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" s="13" t="inlineStr"/>
-      <c r="H137" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B138" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4-FG</t>
-        </is>
-      </c>
-      <c r="C138" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D138" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4, FiberGlass</t>
-        </is>
-      </c>
-      <c r="E138" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F138" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" s="10" t="inlineStr"/>
-      <c r="H138" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B139" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C139" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D139" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E139" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F139" s="13" t="n">
+      <c r="E151" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="10" t="inlineStr"/>
+      <c r="H151" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="12" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B152" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-D1</t>
+        </is>
+      </c>
+      <c r="C152" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D152" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E152" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G139" s="13" t="inlineStr"/>
-      <c r="H139" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B140" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C140" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D140" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E140" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F140" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G140" s="10" t="inlineStr"/>
-      <c r="H140" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B141" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-3</t>
-        </is>
-      </c>
-      <c r="C141" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D141" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 3</t>
-        </is>
-      </c>
-      <c r="E141" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F141" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" s="13" t="inlineStr"/>
-      <c r="H141" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B142" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C142" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D142" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E142" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F142" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G142" s="10" t="inlineStr"/>
-      <c r="H142" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B143" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C143" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D143" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E143" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F143" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="G143" s="13" t="inlineStr"/>
-      <c r="H143" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B144" s="9" t="inlineStr">
-        <is>
-          <t>ARR-10-R</t>
-        </is>
-      </c>
-      <c r="C144" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D144" s="9" t="inlineStr">
-        <is>
-          <t>ARR,10kV,Riser Pole</t>
-        </is>
-      </c>
-      <c r="E144" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F144" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" s="10" t="inlineStr"/>
-      <c r="H144" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B145" s="12" t="inlineStr">
-        <is>
-          <t>BKT-AC183PH-F-C</t>
-        </is>
-      </c>
-      <c r="C145" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D145" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E145" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F145" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" s="13" t="inlineStr"/>
-      <c r="H145" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B146" s="9" t="inlineStr">
-        <is>
-          <t>SWI-25-HGLV-900-H-C</t>
-        </is>
-      </c>
-      <c r="C146" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D146" s="9" t="inlineStr">
-        <is>
-          <t>SWI,35KV,Vert.GOLB Hook,900A,Hook Op,Cor</t>
-        </is>
-      </c>
-      <c r="E146" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F146" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G146" s="10" t="inlineStr"/>
-      <c r="H146" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B147" s="12" t="inlineStr">
-        <is>
-          <t>UCDT-CPL-6-P40-D</t>
-        </is>
-      </c>
-      <c r="C147" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D147" s="12" t="inlineStr">
-        <is>
-          <t>UCDT,Coupling,6in,PVC 40,Distr</t>
-        </is>
-      </c>
-      <c r="E147" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F147" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G147" s="13" t="inlineStr"/>
-      <c r="H147" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B148" s="9" t="inlineStr">
-        <is>
-          <t>UCDT-VNT-6-AL-D</t>
-        </is>
-      </c>
-      <c r="C148" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D148" s="9" t="inlineStr">
-        <is>
-          <t>UCDT,Vent,6",Alum,Dist</t>
-        </is>
-      </c>
-      <c r="E148" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F148" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G148" s="10" t="inlineStr"/>
-      <c r="H148" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B149" s="12" t="inlineStr">
-        <is>
-          <t>UGND-TAG-C</t>
-        </is>
-      </c>
-      <c r="C149" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D149" s="12" t="inlineStr">
-        <is>
-          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
-        </is>
-      </c>
-      <c r="E149" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F149" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" s="13" t="inlineStr"/>
-      <c r="H149" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B150" s="9" t="inlineStr">
-        <is>
-          <t>UPTM-BO-750-15</t>
-        </is>
-      </c>
-      <c r="C150" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D150" s="9" t="inlineStr">
-        <is>
-          <t>UPTM,Bolted Outdoor,750,15kV</t>
-        </is>
-      </c>
-      <c r="E150" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G150" s="10" t="inlineStr"/>
-      <c r="H150" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B151" s="12" t="inlineStr">
-        <is>
-          <t>URSG-D-500</t>
-        </is>
-      </c>
-      <c r="C151" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D151" s="12" t="inlineStr">
-        <is>
-          <t>URSG,Distr,4.500 in to 4.99in</t>
-        </is>
-      </c>
-      <c r="E151" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" s="13" t="inlineStr"/>
-      <c r="H151" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B152" s="9" t="inlineStr">
-        <is>
-          <t>URSG-D-CP</t>
-        </is>
-      </c>
-      <c r="C152" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D152" s="9" t="inlineStr">
-        <is>
-          <t>URSG,Distr,Cable Postioner</t>
-        </is>
-      </c>
-      <c r="E152" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F152" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" s="10" t="inlineStr"/>
-      <c r="H152" s="11" t="n">
-        <v>0</v>
+      <c r="G152" s="13" t="inlineStr"/>
+      <c r="H152" s="14" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B153" s="12" t="inlineStr">
-        <is>
-          <t>URSR-6-DSO-C</t>
-        </is>
-      </c>
-      <c r="C153" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D153" s="12" t="inlineStr">
-        <is>
-          <t>URSR,6in,Dist.,Stand Off,Corr</t>
-        </is>
-      </c>
-      <c r="E153" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F153" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" s="13" t="inlineStr"/>
-      <c r="H153" s="14" t="n">
-        <v>0</v>
+      <c r="A153" s="9" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B153" s="9" t="inlineStr">
+        <is>
+          <t>ARM-3SF-GN-C</t>
+        </is>
+      </c>
+      <c r="C153" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D153" s="9" t="inlineStr">
+        <is>
+          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
+        </is>
+      </c>
+      <c r="E153" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="10" t="inlineStr"/>
+      <c r="H153" s="11" t="n">
+        <v>61.83</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="9" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B154" s="9" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C154" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D154" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E154" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F154" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G154" s="10" t="inlineStr"/>
-      <c r="H154" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="12" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B155" s="12" t="inlineStr">
-        <is>
-          <t>SWI-25-UHD1-900-H-C</t>
-        </is>
-      </c>
-      <c r="C155" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D155" s="12" t="inlineStr">
-        <is>
-          <t>SWI,25kV,Underhng 1PH,900A,Poly,HK,Corr</t>
-        </is>
-      </c>
-      <c r="E155" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F155" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" s="13" t="inlineStr"/>
-      <c r="H155" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="15" t="inlineStr">
+      <c r="A154" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H156" s="16" t="n">
-        <v>0</v>
+      <c r="H154" s="16" t="n">
+        <v>8508.769999999999</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="inlineStr">
+        <is>
+          <t>Saturday (08/09/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B158" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C158" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D158" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E158" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F158" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G158" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H158" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="7" t="inlineStr">
-        <is>
-          <t>Friday (08/08/2025)</t>
-        </is>
+      <c r="A159" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B159" s="9" t="inlineStr">
+        <is>
+          <t>DEC-795AL-C</t>
+        </is>
+      </c>
+      <c r="C159" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D159" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E159" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F159" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G159" s="10" t="inlineStr"/>
+      <c r="H159" s="11" t="n">
+        <v>1717.5</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B160" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C160" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D160" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E160" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F160" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G160" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H160" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A160" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B160" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C160" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D160" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E160" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F160" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="G160" s="13" t="inlineStr"/>
+      <c r="H160" s="14" t="n">
+        <v>36.27</v>
       </c>
     </row>
     <row r="161">
@@ -5228,17 +5113,17 @@
       </c>
       <c r="B161" s="9" t="inlineStr">
         <is>
-          <t>DEG-556-SPA</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C161" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D161" s="9" t="inlineStr">
         <is>
-          <t>DEG,556,Slack Span Alum</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E161" s="9" t="inlineStr">
@@ -5251,198 +5136,198 @@
       </c>
       <c r="G161" s="10" t="inlineStr"/>
       <c r="H161" s="11" t="n">
-        <v>0</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B162" s="12" t="inlineStr">
         <is>
-          <t>DEG-40-SPA</t>
+          <t>CON-10-AAA-1-B</t>
         </is>
       </c>
       <c r="C162" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D162" s="12" t="inlineStr">
         <is>
-          <t>DEG,4/0,Slack Span Alum</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E162" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F162" s="13" t="n">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="G162" s="13" t="inlineStr"/>
       <c r="H162" s="14" t="n">
-        <v>0</v>
+        <v>197.16</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B163" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>CON-10-AAA-1-B</t>
         </is>
       </c>
       <c r="C163" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D163" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E163" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F163" s="10" t="n">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="G163" s="10" t="inlineStr"/>
       <c r="H163" s="11" t="n">
-        <v>0</v>
+        <v>259.47</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B164" s="12" t="inlineStr">
         <is>
-          <t>PLD-SFL</t>
+          <t>CON-10-AAA-1-B</t>
         </is>
       </c>
       <c r="C164" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D164" s="12" t="inlineStr">
         <is>
-          <t>PLD,Setting Foam Large</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E164" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F164" s="13" t="n">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="G164" s="13" t="inlineStr"/>
       <c r="H164" s="14" t="n">
-        <v>0</v>
+        <v>172.05</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B165" s="9" t="inlineStr">
         <is>
-          <t>DEC-795AL-C</t>
+          <t>CON-10-AAA-1-B</t>
         </is>
       </c>
       <c r="C165" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D165" s="9" t="inlineStr">
         <is>
-          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E165" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F165" s="10" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G165" s="10" t="inlineStr"/>
       <c r="H165" s="11" t="n">
-        <v>0</v>
+        <v>24.18</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B166" s="12" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>CON-10-AAA-1-B</t>
         </is>
       </c>
       <c r="C166" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E166" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F166" s="13" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G166" s="13" t="inlineStr"/>
       <c r="H166" s="14" t="n">
-        <v>0</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B167" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C167" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D167" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E167" s="9" t="inlineStr">
@@ -5451,22 +5336,22 @@
         </is>
       </c>
       <c r="F167" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G167" s="10" t="inlineStr"/>
       <c r="H167" s="11" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B168" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI18-F-C</t>
+          <t>GYF-12-D-78P-EP</t>
         </is>
       </c>
       <c r="C168" s="12" t="inlineStr">
@@ -5476,7 +5361,7 @@
       </c>
       <c r="D168" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 18in,Fbrgls,Corr</t>
+          <t>GYF,1/2,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E168" s="12" t="inlineStr">
@@ -5485,22 +5370,22 @@
         </is>
       </c>
       <c r="F168" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168" s="13" t="inlineStr"/>
       <c r="H168" s="14" t="n">
-        <v>0</v>
+        <v>71.16</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B169" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C169" s="9" t="inlineStr">
@@ -5510,7 +5395,7 @@
       </c>
       <c r="D169" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E169" s="9" t="inlineStr">
@@ -5523,1334 +5408,17 @@
       </c>
       <c r="G169" s="10" t="inlineStr"/>
       <c r="H169" s="11" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B170" s="12" t="inlineStr">
-        <is>
-          <t>CND-SB556</t>
-        </is>
-      </c>
-      <c r="C170" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D170" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup Bolted 556MCM</t>
-        </is>
-      </c>
-      <c r="E170" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F170" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G170" s="13" t="inlineStr"/>
-      <c r="H170" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B171" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DSC-16-96-D1</t>
-        </is>
-      </c>
-      <c r="C171" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D171" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E171" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F171" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G171" s="10" t="inlineStr"/>
-      <c r="H171" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B172" s="12" t="inlineStr">
-        <is>
-          <t>ARM-3SF-GN-C</t>
-        </is>
-      </c>
-      <c r="C172" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D172" s="12" t="inlineStr">
-        <is>
-          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
-        </is>
-      </c>
-      <c r="E172" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F172" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G172" s="13" t="inlineStr"/>
-      <c r="H172" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B173" s="9" t="inlineStr">
-        <is>
-          <t>DEC-795AL-C</t>
-        </is>
-      </c>
-      <c r="C173" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D173" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E173" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F173" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G173" s="10" t="inlineStr"/>
-      <c r="H173" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B174" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C174" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D174" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E174" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F174" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G174" s="13" t="inlineStr"/>
-      <c r="H174" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B175" s="9" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C175" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D175" s="9" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E175" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F175" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G175" s="10" t="inlineStr"/>
-      <c r="H175" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B176" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-D-42P-EP-C</t>
-        </is>
-      </c>
-      <c r="C176" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D176" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E176" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F176" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G176" s="13" t="inlineStr"/>
-      <c r="H176" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B177" s="9" t="inlineStr">
-        <is>
-          <t>GYW-38C</t>
-        </is>
-      </c>
-      <c r="C177" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D177" s="9" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
-        </is>
-      </c>
-      <c r="E177" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F177" s="10" t="n">
-        <v>120</v>
-      </c>
-      <c r="G177" s="10" t="inlineStr"/>
-      <c r="H177" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B178" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C178" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D178" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E178" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F178" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G178" s="13" t="inlineStr"/>
-      <c r="H178" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B179" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C179" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D179" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E179" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F179" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G179" s="10" t="inlineStr"/>
-      <c r="H179" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B180" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C180" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D180" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E180" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F180" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" s="13" t="inlineStr"/>
-      <c r="H180" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B181" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C181" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D181" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E181" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F181" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G181" s="10" t="inlineStr"/>
-      <c r="H181" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B182" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE-ARM-C</t>
-        </is>
-      </c>
-      <c r="C182" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D182" s="12" t="inlineStr">
-        <is>
-          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
-        </is>
-      </c>
-      <c r="E182" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F182" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G182" s="13" t="inlineStr"/>
-      <c r="H182" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B183" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C183" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D183" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E183" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F183" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G183" s="10" t="inlineStr"/>
-      <c r="H183" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B184" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-1</t>
-        </is>
-      </c>
-      <c r="C184" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D184" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E184" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F184" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G184" s="13" t="inlineStr"/>
-      <c r="H184" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="9" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B185" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-D1</t>
-        </is>
-      </c>
-      <c r="C185" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D185" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E185" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F185" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G185" s="10" t="inlineStr"/>
-      <c r="H185" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="12" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B186" s="12" t="inlineStr">
-        <is>
-          <t>ARM-3SF-GN-C</t>
-        </is>
-      </c>
-      <c r="C186" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D186" s="12" t="inlineStr">
-        <is>
-          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
-        </is>
-      </c>
-      <c r="E186" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F186" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" s="13" t="inlineStr"/>
-      <c r="H186" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="9" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B187" s="9" t="inlineStr">
-        <is>
-          <t>ARR-10-R</t>
-        </is>
-      </c>
-      <c r="C187" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D187" s="9" t="inlineStr">
-        <is>
-          <t>ARR,10kV,Riser Pole</t>
-        </is>
-      </c>
-      <c r="E187" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F187" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" s="10" t="inlineStr"/>
-      <c r="H187" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="12" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B188" s="12" t="inlineStr">
-        <is>
-          <t>BKT-AC183PH-F</t>
-        </is>
-      </c>
-      <c r="C188" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D188" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Riser Arrestor/Term 18in 3Ph,Fbrgls</t>
-        </is>
-      </c>
-      <c r="E188" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F188" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G188" s="13" t="inlineStr"/>
-      <c r="H188" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="15" t="inlineStr">
+      <c r="A170" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H189" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="7" t="inlineStr">
-        <is>
-          <t>Saturday (08/09/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B193" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C193" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D193" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E193" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F193" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G193" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H193" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B194" s="9" t="inlineStr">
-        <is>
-          <t>DEC-795AL-C</t>
-        </is>
-      </c>
-      <c r="C194" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D194" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#477 - #795 AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E194" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F194" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G194" s="10" t="inlineStr"/>
-      <c r="H194" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B195" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C195" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D195" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E195" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F195" s="13" t="n">
-        <v>39</v>
-      </c>
-      <c r="G195" s="13" t="inlineStr"/>
-      <c r="H195" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="9" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B196" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DHM-8-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C196" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D196" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E196" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F196" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G196" s="10" t="inlineStr"/>
-      <c r="H196" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="12" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B197" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C197" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D197" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E197" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F197" s="13" t="n">
-        <v>212</v>
-      </c>
-      <c r="G197" s="13" t="inlineStr"/>
-      <c r="H197" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B198" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C198" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D198" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E198" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F198" s="10" t="n">
-        <v>279</v>
-      </c>
-      <c r="G198" s="10" t="inlineStr"/>
-      <c r="H198" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="12" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B199" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C199" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D199" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E199" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F199" s="13" t="n">
-        <v>185</v>
-      </c>
-      <c r="G199" s="13" t="inlineStr"/>
-      <c r="H199" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="9" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B200" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C200" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D200" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E200" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F200" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="G200" s="10" t="inlineStr"/>
-      <c r="H200" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B201" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C201" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D201" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E201" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F201" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="G201" s="13" t="inlineStr"/>
-      <c r="H201" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="9" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B202" s="9" t="inlineStr">
-        <is>
-          <t>EQL-3-50-S-50-S-SWT</t>
-        </is>
-      </c>
-      <c r="C202" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D202" s="9" t="inlineStr">
-        <is>
-          <t>EQL,3 Ph,500,Str,500,Str,600a Swt</t>
-        </is>
-      </c>
-      <c r="E202" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F202" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G202" s="10" t="inlineStr"/>
-      <c r="H202" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="12" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B203" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C203" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D203" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E203" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F203" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G203" s="13" t="inlineStr"/>
-      <c r="H203" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="9" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B204" s="9" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C204" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D204" s="9" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E204" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F204" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G204" s="10" t="inlineStr"/>
-      <c r="H204" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="12" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B205" s="12" t="inlineStr">
-        <is>
-          <t>GYF-12-D-78P-EP</t>
-        </is>
-      </c>
-      <c r="C205" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D205" s="12" t="inlineStr">
-        <is>
-          <t>GYF,1/2,Down,78in Pole mt,EyePlate</t>
-        </is>
-      </c>
-      <c r="E205" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F205" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G205" s="13" t="inlineStr"/>
-      <c r="H205" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="9" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B206" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP</t>
-        </is>
-      </c>
-      <c r="C206" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D206" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
-        </is>
-      </c>
-      <c r="E206" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F206" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G206" s="10" t="inlineStr"/>
-      <c r="H206" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="12" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B207" s="12" t="inlineStr">
-        <is>
-          <t>GYW-12</t>
-        </is>
-      </c>
-      <c r="C207" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D207" s="12" t="inlineStr">
-        <is>
-          <t>GYW,1/2 in. EHS (26,900 lbs)</t>
-        </is>
-      </c>
-      <c r="E207" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F207" s="13" t="n">
-        <v>80</v>
-      </c>
-      <c r="G207" s="13" t="inlineStr"/>
-      <c r="H207" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="9" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B208" s="9" t="inlineStr">
-        <is>
-          <t>GYW-38</t>
-        </is>
-      </c>
-      <c r="C208" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D208" s="9" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
-        </is>
-      </c>
-      <c r="E208" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F208" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="G208" s="10" t="inlineStr"/>
-      <c r="H208" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="12" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B209" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C209" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D209" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E209" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F209" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G209" s="13" t="inlineStr"/>
-      <c r="H209" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="9" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B210" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-ARM-C</t>
-        </is>
-      </c>
-      <c r="C210" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D210" s="9" t="inlineStr">
-        <is>
-          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
-        </is>
-      </c>
-      <c r="E210" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F210" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G210" s="10" t="inlineStr"/>
-      <c r="H210" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="12" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B211" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C211" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D211" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E211" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F211" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G211" s="13" t="inlineStr"/>
-      <c r="H211" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H212" s="16" t="n">
-        <v>0</v>
+      <c r="H170" s="16" t="n">
+        <v>2688.429999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6858,24 +5426,24 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="D2:I4"/>
-    <mergeCell ref="A156:G156"/>
+    <mergeCell ref="A157:H157"/>
+    <mergeCell ref="A170:G170"/>
     <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A74:H74"/>
     <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A57:H57"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A54:G54"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A212:G212"/>
-    <mergeCell ref="A159:H159"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A189:G189"/>
-    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A154:G154"/>
     <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A71:G71"/>
     <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
